--- a/Outputs/1. Budget/Output Files/100000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_11_39.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2270751.234525997</v>
+        <v>2265439.290759937</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2987583.463130651</v>
+        <v>2987583.46313065</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.74175572889824</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>40.53172782580149</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>33.74175572889825</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1451,14 +1451,14 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>35.70034586896595</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>40.53172782580149</v>
       </c>
       <c r="V12" t="n">
-        <v>35.70034586896595</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>35.70034586896595</v>
       </c>
       <c r="V13" t="n">
-        <v>35.70034586896595</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="W13" t="n">
         <v>40.53172782580149</v>
@@ -1596,7 +1596,7 @@
         <v>40.53172782580149</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>38.34138958043696</v>
       </c>
       <c r="F14" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="H14" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="I14" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.34138958043696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38.34138958043696</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="E15" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="F15" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="G15" t="n">
-        <v>43.53018798868867</v>
+        <v>38.34138958043695</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.34138958043696</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="J16" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>38.34138958043696</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>144.7148459270878</v>
+        <v>144.7148459270879</v>
       </c>
       <c r="W17" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="X17" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="Y17" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>22.83881138508139</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S18" t="n">
-        <v>3.782980078234875</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W18" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>71.25634645486652</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.21494800596709</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>37.36015722992396</v>
       </c>
     </row>
     <row r="20">
@@ -2092,64 +2092,64 @@
         <v>167.459720176265</v>
       </c>
       <c r="F20" t="n">
+        <v>147.4985215312542</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>167.459720176265</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>60.4724850897346</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>87.02603644151961</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>83.31186613690066</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29.78929083921966</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>110.7680958434065</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>5.164374950316853</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C22" t="n">
         <v>77.85018824721276</v>
@@ -2295,10 +2295,10 @@
         <v>138.5489565768664</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>130.0611155790584</v>
       </c>
       <c r="V22" t="n">
-        <v>91.30844240890087</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>157.6514377519634</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
         <v>22.83881138508139</v>
@@ -2459,13 +2459,13 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
-        <v>49.03061115150404</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>13.11987216931691</v>
       </c>
     </row>
     <row r="25">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
         <v>57.03732979515409</v>
@@ -2490,13 +2490,13 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>153.4594160341196</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5.186225795497585</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>52.99502884595981</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
@@ -2617,7 +2617,7 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>174.3858809887886</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>18.88521242545134</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434065</v>
@@ -2693,7 +2693,7 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>104.6174258415921</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>55.39048781325706</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>18.02159174692734</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>111.2547326401147</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>160.3101010109025</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>23.35380700077695</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.16073221158827</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
         <v>136.5447492295597</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.00662310888182</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>78.59434650704368</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>98.23103316343382</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.3991529426024</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>130.5744682810508</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>65.58717310238474</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>47.26260214415012</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>129.5491403965729</v>
+        <v>2.619823682645527</v>
       </c>
       <c r="T33" t="n">
         <v>158.0306979875566</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>190.6665564421603</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>209.5609524536546</v>
       </c>
       <c r="X33" t="n">
         <v>163.6389544962125</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.3098549689868</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.2999319393042</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8569486511938</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>44.02801254442942</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.1593606699045</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>177.2793623451507</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>126.4216584240224</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>95.20948645594567</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.5491403965729</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>158.0306979875566</v>
@@ -3410,10 +3410,10 @@
         <v>200.4825610518575</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>163.6389544962125</v>
       </c>
       <c r="Y36" t="n">
-        <v>163.5486650700394</v>
+        <v>160.6710229384763</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>137.6979494746723</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.28622503295481</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.47451928525383</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>113.3164442199933</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>51.22514940940779</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>200.4825610518575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>176.4506226448298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,19 +3553,19 @@
         <v>107.7350872338847</v>
       </c>
       <c r="S38" t="n">
-        <v>166.8860388789803</v>
+        <v>166.8860388789804</v>
       </c>
       <c r="T38" t="n">
         <v>180.9618188568664</v>
       </c>
       <c r="U38" t="n">
-        <v>113.3292528712143</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>197.4841008889704</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>113.3292528712143</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>130.5744682810508</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>105.3110348573738</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>102.9351816861189</v>
       </c>
       <c r="G39" t="n">
-        <v>95.20948645594565</v>
+        <v>95.20948645594567</v>
       </c>
       <c r="H39" t="n">
-        <v>70.10141352923148</v>
+        <v>70.10141352923151</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>47.26260214415012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>58.02380344537817</v>
       </c>
       <c r="S39" t="n">
-        <v>4.07684022113171</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>31.83104551008209</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>197.4841008889704</v>
       </c>
       <c r="X39" t="n">
-        <v>163.6389544962125</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>163.5486650700394</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>137.6979494746723</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.69561735484825</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.2870173156663</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>197.4841008889704</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>42.31816343998239</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>176.4506226448298</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.71496334735947</v>
+        <v>67.57053971635416</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>67.57053971635422</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="Y41" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.57053971635422</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="C42" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>67.57053971635416</v>
       </c>
       <c r="E42" t="n">
-        <v>76.71496334735947</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>76.71496334735947</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>29.05094268078677</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="J43" t="n">
-        <v>61.2158486239526</v>
+        <v>61.21584862395262</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.01871175897421</v>
+        <v>54.01871175897423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.05094268078691</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="G44" t="n">
-        <v>73.5545687013941</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>73.5545687013941</v>
+        <v>64.78686411218783</v>
       </c>
       <c r="I44" t="n">
-        <v>64.78686411218789</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>64.78686411218783</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>73.5545687013941</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="V45" t="n">
-        <v>73.5545687013941</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>64.78686411218789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,28 +4137,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.5545687013941</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.5545687013941</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>63.17443876402033</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>64.78686411218789</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.61242534816753</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.24463286724335</v>
+        <v>46.1620513229017</v>
       </c>
       <c r="C11" t="n">
-        <v>80.24463286724335</v>
+        <v>46.1620513229017</v>
       </c>
       <c r="D11" t="n">
-        <v>80.24463286724335</v>
+        <v>46.1620513229017</v>
       </c>
       <c r="E11" t="n">
         <v>46.1620513229017</v>
@@ -5044,10 +5044,10 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K11" t="n">
-        <v>41.74767966057554</v>
+        <v>43.36894877360759</v>
       </c>
       <c r="L11" t="n">
-        <v>81.87409020811901</v>
+        <v>83.49535932115106</v>
       </c>
       <c r="M11" t="n">
         <v>122.0005007556625</v>
@@ -5068,25 +5068,25 @@
         <v>121.1857720852247</v>
       </c>
       <c r="S11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="T11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="U11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="V11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="W11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="X11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.1857720852247</v>
+        <v>87.10319054088299</v>
       </c>
     </row>
     <row r="12">
@@ -5099,10 +5099,10 @@
         <v>44.18367744404542</v>
       </c>
       <c r="C12" t="n">
-        <v>3.242538226064119</v>
+        <v>44.18367744404542</v>
       </c>
       <c r="D12" t="n">
-        <v>3.242538226064119</v>
+        <v>44.18367744404542</v>
       </c>
       <c r="E12" t="n">
         <v>3.242538226064119</v>
@@ -5123,7 +5123,7 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K12" t="n">
-        <v>41.74767966057554</v>
+        <v>43.36894877360759</v>
       </c>
       <c r="L12" t="n">
         <v>81.87409020811901</v>
@@ -5147,13 +5147,13 @@
         <v>162.126911303206</v>
       </c>
       <c r="S12" t="n">
-        <v>162.126911303206</v>
+        <v>126.065955880008</v>
       </c>
       <c r="T12" t="n">
-        <v>162.126911303206</v>
+        <v>126.065955880008</v>
       </c>
       <c r="U12" t="n">
-        <v>121.1857720852247</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="V12" t="n">
         <v>85.12481666202672</v>
@@ -5232,16 +5232,16 @@
         <v>162.126911303206</v>
       </c>
       <c r="U13" t="n">
-        <v>162.126911303206</v>
+        <v>126.065955880008</v>
       </c>
       <c r="V13" t="n">
-        <v>126.065955880008</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="W13" t="n">
-        <v>85.12481666202672</v>
+        <v>44.18367744404542</v>
       </c>
       <c r="X13" t="n">
-        <v>44.18367744404542</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="Y13" t="n">
         <v>3.242538226064119</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.3920756108789</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="C14" t="n">
-        <v>135.3920756108789</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="D14" t="n">
-        <v>135.3920756108789</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="E14" t="n">
         <v>135.3920756108789</v>
       </c>
       <c r="F14" t="n">
-        <v>91.42218875361766</v>
+        <v>135.3920756108789</v>
       </c>
       <c r="G14" t="n">
-        <v>91.42218875361766</v>
+        <v>91.42218875361763</v>
       </c>
       <c r="H14" t="n">
         <v>47.45230189635637</v>
@@ -5281,49 +5281,49 @@
         <v>3.482415039095093</v>
       </c>
       <c r="K14" t="n">
-        <v>3.482415039095093</v>
+        <v>46.57730114789687</v>
       </c>
       <c r="L14" t="n">
-        <v>46.57730114789688</v>
+        <v>87.93097973715109</v>
       </c>
       <c r="M14" t="n">
-        <v>89.67218725669866</v>
+        <v>87.93097973715109</v>
       </c>
       <c r="N14" t="n">
         <v>131.0258658459529</v>
       </c>
       <c r="O14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="P14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="R14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="S14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="T14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="U14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="V14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="W14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="X14" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="Y14" t="n">
-        <v>135.3920756108789</v>
+        <v>174.1207519547546</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="C15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="D15" t="n">
-        <v>135.3920756108789</v>
+        <v>130.1508650974934</v>
       </c>
       <c r="E15" t="n">
-        <v>91.42218875361766</v>
+        <v>86.18097824023208</v>
       </c>
       <c r="F15" t="n">
-        <v>47.45230189635637</v>
+        <v>42.21109138297081</v>
       </c>
       <c r="G15" t="n">
         <v>3.482415039095093</v>
@@ -5360,49 +5360,49 @@
         <v>3.482415039095093</v>
       </c>
       <c r="K15" t="n">
-        <v>44.83609362834934</v>
+        <v>46.57730114789687</v>
       </c>
       <c r="L15" t="n">
-        <v>87.93097973715112</v>
+        <v>89.67218725669863</v>
       </c>
       <c r="M15" t="n">
-        <v>87.93097973715112</v>
+        <v>131.0258658459529</v>
       </c>
       <c r="N15" t="n">
-        <v>87.93097973715112</v>
+        <v>131.0258658459529</v>
       </c>
       <c r="O15" t="n">
-        <v>87.93097973715112</v>
+        <v>131.0258658459529</v>
       </c>
       <c r="P15" t="n">
         <v>131.0258658459529</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="R15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="S15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="T15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="U15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="V15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="W15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="X15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="Y15" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="C16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="D16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="E16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="F16" t="n">
-        <v>47.45230189635637</v>
+        <v>135.3920756108789</v>
       </c>
       <c r="G16" t="n">
-        <v>47.45230189635637</v>
+        <v>91.42218875361763</v>
       </c>
       <c r="H16" t="n">
         <v>47.45230189635637</v>
       </c>
       <c r="I16" t="n">
-        <v>47.45230189635637</v>
+        <v>3.482415039095093</v>
       </c>
       <c r="J16" t="n">
         <v>3.482415039095093</v>
@@ -5442,7 +5442,7 @@
         <v>3.482415039095093</v>
       </c>
       <c r="L16" t="n">
-        <v>42.62633650787447</v>
+        <v>42.62633650787446</v>
       </c>
       <c r="M16" t="n">
         <v>85.72122261667624</v>
@@ -5454,34 +5454,34 @@
         <v>164.9851818214437</v>
       </c>
       <c r="P16" t="n">
-        <v>174.1207519547547</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.1508650974934</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="R16" t="n">
-        <v>86.18097824023209</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="S16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="T16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="U16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="V16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="W16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="X16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.45230189635637</v>
+        <v>174.1207519547546</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="C17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="D17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="E17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="F17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="G17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="H17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="I17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="J17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="K17" t="n">
-        <v>116.1589519533463</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="L17" t="n">
-        <v>278.8152842283429</v>
+        <v>175.8002783174205</v>
       </c>
       <c r="M17" t="n">
-        <v>418.3422966864991</v>
+        <v>338.4566105924171</v>
       </c>
       <c r="N17" t="n">
-        <v>418.3422966864991</v>
+        <v>501.1129428674137</v>
       </c>
       <c r="O17" t="n">
-        <v>567.5372468291472</v>
+        <v>650.3078930100618</v>
       </c>
       <c r="P17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="Q17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="R17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="S17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="T17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="U17" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="V17" t="n">
-        <v>511.0206900736347</v>
+        <v>511.0206900736348</v>
       </c>
       <c r="W17" t="n">
         <v>345.0617753965645</v>
       </c>
       <c r="X17" t="n">
-        <v>179.1028607194942</v>
+        <v>179.1028607194943</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>293.9708035977091</v>
+        <v>36.21345249200112</v>
       </c>
       <c r="C18" t="n">
-        <v>209.8174034594256</v>
+        <v>36.21345249200112</v>
       </c>
       <c r="D18" t="n">
-        <v>209.8174034594256</v>
+        <v>36.21345249200112</v>
       </c>
       <c r="E18" t="n">
-        <v>140.8795775968136</v>
+        <v>36.21345249200112</v>
       </c>
       <c r="F18" t="n">
-        <v>84.6446487665421</v>
+        <v>36.21345249200112</v>
       </c>
       <c r="G18" t="n">
         <v>36.21345249200112</v>
       </c>
       <c r="H18" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="I18" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="J18" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="K18" t="n">
-        <v>13.14394604242396</v>
+        <v>138.5015061002614</v>
       </c>
       <c r="L18" t="n">
-        <v>13.14394604242396</v>
+        <v>138.5015061002614</v>
       </c>
       <c r="M18" t="n">
-        <v>99.83374678287919</v>
+        <v>169.2283052962086</v>
       </c>
       <c r="N18" t="n">
-        <v>262.4900790578757</v>
+        <v>331.8846375712052</v>
       </c>
       <c r="O18" t="n">
-        <v>425.1464113328723</v>
+        <v>494.5409698462017</v>
       </c>
       <c r="P18" t="n">
-        <v>587.8027436078688</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="Q18" t="n">
-        <v>657.1973021211982</v>
+        <v>657.1973021211983</v>
       </c>
       <c r="R18" t="n">
-        <v>657.1973021211982</v>
+        <v>646.3274018169275</v>
       </c>
       <c r="S18" t="n">
-        <v>653.3761101229811</v>
+        <v>646.3274018169275</v>
       </c>
       <c r="T18" t="n">
-        <v>653.3761101229811</v>
+        <v>534.4404363185371</v>
       </c>
       <c r="U18" t="n">
-        <v>653.3761101229811</v>
+        <v>534.4404363185371</v>
       </c>
       <c r="V18" t="n">
-        <v>653.3761101229811</v>
+        <v>389.5879572296379</v>
       </c>
       <c r="W18" t="n">
-        <v>489.4383825376229</v>
+        <v>225.6502296442797</v>
       </c>
       <c r="X18" t="n">
-        <v>371.8865114749336</v>
+        <v>153.6741221141115</v>
       </c>
       <c r="Y18" t="n">
-        <v>371.8865114749336</v>
+        <v>36.21345249200112</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.168728622481</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="C19" t="n">
-        <v>92.53217483741759</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="D19" t="n">
-        <v>92.53217483741759</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="E19" t="n">
-        <v>92.53217483741759</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="F19" t="n">
-        <v>92.53217483741759</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="G19" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="H19" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="I19" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="J19" t="n">
-        <v>13.14394604242396</v>
+        <v>13.14394604242397</v>
       </c>
       <c r="K19" t="n">
         <v>79.59981565770086</v>
@@ -5712,13 +5712,13 @@
         <v>216.840393274973</v>
       </c>
       <c r="W19" t="n">
-        <v>216.840393274973</v>
+        <v>50.88147859790271</v>
       </c>
       <c r="X19" t="n">
-        <v>216.840393274973</v>
+        <v>50.88147859790271</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.840393274973</v>
+        <v>13.14394604242397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>520.8504751179344</v>
+        <v>500.6876482037821</v>
       </c>
       <c r="C20" t="n">
-        <v>520.8504751179344</v>
+        <v>500.6876482037821</v>
       </c>
       <c r="D20" t="n">
-        <v>351.6992426166566</v>
+        <v>331.5364157025044</v>
       </c>
       <c r="E20" t="n">
-        <v>182.5480101153789</v>
+        <v>162.3851832012267</v>
       </c>
       <c r="F20" t="n">
         <v>13.3967776141012</v>
@@ -5755,19 +5755,19 @@
         <v>13.3967776141012</v>
       </c>
       <c r="K20" t="n">
-        <v>116.4117835250236</v>
+        <v>13.3967776141012</v>
       </c>
       <c r="L20" t="n">
-        <v>282.1969064995259</v>
+        <v>99.41362932135621</v>
       </c>
       <c r="M20" t="n">
-        <v>447.9820294740282</v>
+        <v>265.1987522958585</v>
       </c>
       <c r="N20" t="n">
-        <v>613.7671524485305</v>
+        <v>430.9838752703608</v>
       </c>
       <c r="O20" t="n">
-        <v>613.7671524485305</v>
+        <v>580.1788254130089</v>
       </c>
       <c r="P20" t="n">
         <v>669.8388807050599</v>
@@ -5776,28 +5776,28 @@
         <v>669.8388807050599</v>
       </c>
       <c r="R20" t="n">
-        <v>608.7555624326006</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="S20" t="n">
-        <v>608.7555624326006</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="T20" t="n">
-        <v>608.7555624326006</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="U20" t="n">
-        <v>520.8504751179344</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="V20" t="n">
-        <v>520.8504751179344</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="W20" t="n">
-        <v>520.8504751179344</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="X20" t="n">
-        <v>520.8504751179344</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="Y20" t="n">
-        <v>520.8504751179344</v>
+        <v>500.6876482037821</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>294.2236351693863</v>
+        <v>153.7851065826562</v>
       </c>
       <c r="C21" t="n">
-        <v>210.0702350311028</v>
+        <v>69.63170644437272</v>
       </c>
       <c r="D21" t="n">
-        <v>210.0702350311028</v>
+        <v>69.63170644437272</v>
       </c>
       <c r="E21" t="n">
-        <v>141.1324091684909</v>
+        <v>69.63170644437272</v>
       </c>
       <c r="F21" t="n">
-        <v>84.89748033821934</v>
+        <v>13.3967776141012</v>
       </c>
       <c r="G21" t="n">
-        <v>36.46628406367836</v>
+        <v>13.3967776141012</v>
       </c>
       <c r="H21" t="n">
         <v>13.3967776141012</v>
@@ -5837,10 +5837,10 @@
         <v>138.7543376719386</v>
       </c>
       <c r="L21" t="n">
-        <v>172.4835117815529</v>
+        <v>304.5394606464409</v>
       </c>
       <c r="M21" t="n">
-        <v>338.2686347560552</v>
+        <v>470.3245836209433</v>
       </c>
       <c r="N21" t="n">
         <v>504.0537577305575</v>
@@ -5855,28 +5855,28 @@
         <v>669.8388807050599</v>
       </c>
       <c r="R21" t="n">
-        <v>658.9689804007891</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="S21" t="n">
-        <v>628.8787876339005</v>
+        <v>669.8388807050599</v>
       </c>
       <c r="T21" t="n">
-        <v>516.9918221355101</v>
+        <v>557.9519152066695</v>
       </c>
       <c r="U21" t="n">
-        <v>516.9918221355101</v>
+        <v>552.7353748528141</v>
       </c>
       <c r="V21" t="n">
-        <v>372.1393430466109</v>
+        <v>552.7353748528141</v>
       </c>
       <c r="W21" t="n">
-        <v>372.1393430466109</v>
+        <v>388.7976472674559</v>
       </c>
       <c r="X21" t="n">
-        <v>372.1393430466109</v>
+        <v>271.2457762047666</v>
       </c>
       <c r="Y21" t="n">
-        <v>372.1393430466109</v>
+        <v>153.7851065826562</v>
       </c>
     </row>
     <row r="22">
@@ -5943,19 +5943,19 @@
         <v>393.9106769046319</v>
       </c>
       <c r="U22" t="n">
-        <v>393.9106769046319</v>
+        <v>262.5358126833609</v>
       </c>
       <c r="V22" t="n">
-        <v>301.6799269966513</v>
+        <v>262.5358126833609</v>
       </c>
       <c r="W22" t="n">
-        <v>301.6799269966513</v>
+        <v>262.5358126833609</v>
       </c>
       <c r="X22" t="n">
-        <v>301.6799269966513</v>
+        <v>262.5358126833609</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.1869769959647</v>
+        <v>262.5358126833609</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="F23" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>262.7299197543128</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>829.0074416594076</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>665.4225729155476</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241.3737590467527</v>
+        <v>231.1701748028859</v>
       </c>
       <c r="C24" t="n">
-        <v>157.2203589084692</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="D24" t="n">
-        <v>98.58557839006141</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="E24" t="n">
-        <v>98.58557839006141</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F24" t="n">
-        <v>42.35064955978989</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G24" t="n">
         <v>42.35064955978989</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6107,13 +6107,13 @@
         <v>486.2760063960916</v>
       </c>
       <c r="W24" t="n">
-        <v>436.7501365460876</v>
+        <v>322.3382788107335</v>
       </c>
       <c r="X24" t="n">
-        <v>436.7501365460876</v>
+        <v>322.3382788107335</v>
       </c>
       <c r="Y24" t="n">
-        <v>319.2894669239772</v>
+        <v>309.0858826801104</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286.4393563725748</v>
+        <v>260.0229887761832</v>
       </c>
       <c r="C25" t="n">
-        <v>286.4393563725748</v>
+        <v>260.0229887761832</v>
       </c>
       <c r="D25" t="n">
-        <v>286.4393563725748</v>
+        <v>200.205978506691</v>
       </c>
       <c r="E25" t="n">
-        <v>228.8258919330252</v>
+        <v>142.5925140671414</v>
       </c>
       <c r="F25" t="n">
-        <v>172.2355735779584</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G25" t="n">
-        <v>92.84734478296475</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>663.2906532062331</v>
       </c>
       <c r="U25" t="n">
-        <v>663.2906532062331</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="V25" t="n">
-        <v>663.2906532062331</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="W25" t="n">
-        <v>508.2811420606577</v>
+        <v>265.2616006908272</v>
       </c>
       <c r="X25" t="n">
-        <v>508.2811420606577</v>
+        <v>260.0229887761832</v>
       </c>
       <c r="Y25" t="n">
-        <v>377.788192059971</v>
+        <v>260.0229887761832</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K26" t="n">
         <v>122.2961490211351</v>
@@ -6253,16 +6253,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>843.2254012330299</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>843.2254012330299</v>
+        <v>910.526823343</v>
       </c>
       <c r="U26" t="n">
-        <v>679.6405324891698</v>
+        <v>746.94195459914</v>
       </c>
       <c r="V26" t="n">
-        <v>438.8772742884427</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
         <v>262.7299197543128</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>126.5040496980734</v>
+        <v>237.380224744096</v>
       </c>
       <c r="C27" t="n">
-        <v>42.35064955978989</v>
+        <v>153.2268246058125</v>
       </c>
       <c r="D27" t="n">
-        <v>42.35064955978989</v>
+        <v>94.59204408740479</v>
       </c>
       <c r="E27" t="n">
-        <v>42.35064955978989</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="F27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>880.9394401041486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>769.0524746057582</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="U27" t="n">
-        <v>631.1284854849908</v>
+        <v>714.2462008914785</v>
       </c>
       <c r="V27" t="n">
-        <v>525.4543179682312</v>
+        <v>714.2462008914785</v>
       </c>
       <c r="W27" t="n">
-        <v>361.5165903828731</v>
+        <v>550.3084733061203</v>
       </c>
       <c r="X27" t="n">
-        <v>243.9647193201838</v>
+        <v>432.756602243431</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.5040496980734</v>
+        <v>315.2959326213206</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>609.2520941069744</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="C28" t="n">
-        <v>530.615540321911</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="D28" t="n">
-        <v>530.615540321911</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="E28" t="n">
-        <v>473.0020758823614</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="F28" t="n">
-        <v>473.0020758823614</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6138470873678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>386.5035150298927</v>
+        <v>85.73701272548962</v>
       </c>
       <c r="L28" t="n">
-        <v>502.3203065605066</v>
+        <v>201.5538042561035</v>
       </c>
       <c r="M28" t="n">
-        <v>630.0110112756297</v>
+        <v>329.2445089712266</v>
       </c>
       <c r="N28" t="n">
-        <v>762.204528453967</v>
+        <v>461.4380261495638</v>
       </c>
       <c r="O28" t="n">
-        <v>875.0464716117672</v>
+        <v>574.279969307364</v>
       </c>
       <c r="P28" t="n">
-        <v>960.8549118069127</v>
+        <v>660.0884095025095</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>518.5560609446053</v>
       </c>
       <c r="U28" t="n">
-        <v>765.1456438893475</v>
+        <v>319.6445493233166</v>
       </c>
       <c r="V28" t="n">
-        <v>746.9420158621482</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="W28" t="n">
-        <v>746.9420158621482</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="X28" t="n">
-        <v>609.2520941069744</v>
+        <v>155.2596902602732</v>
       </c>
       <c r="Y28" t="n">
-        <v>609.2520941069744</v>
+        <v>155.2596902602732</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>375.1084375726105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>131.6596609285104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>131.6596609285104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>131.6596609285104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>131.6596609285104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>131.6596609285104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>782.1420829605706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="U29" t="n">
-        <v>618.5572142167106</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="V29" t="n">
-        <v>618.5572142167106</v>
+        <v>424.6593147148204</v>
       </c>
       <c r="W29" t="n">
-        <v>375.1084375726105</v>
+        <v>181.2105380707204</v>
       </c>
       <c r="X29" t="n">
-        <v>375.1084375726105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.1084375726105</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.5448108493164</v>
+        <v>170.4434535324213</v>
       </c>
       <c r="C30" t="n">
-        <v>109.3914107110329</v>
+        <v>146.8537494912325</v>
       </c>
       <c r="D30" t="n">
-        <v>50.75663019262512</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="E30" t="n">
-        <v>50.75663019262512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>50.75663019262512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,7 +6551,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>953.1872552063654</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="U30" t="n">
-        <v>815.263266085598</v>
+        <v>714.2462008914785</v>
       </c>
       <c r="V30" t="n">
-        <v>670.4107869966988</v>
+        <v>569.3937218025792</v>
       </c>
       <c r="W30" t="n">
-        <v>506.4730594113406</v>
+        <v>405.455994217221</v>
       </c>
       <c r="X30" t="n">
-        <v>388.9211883486513</v>
+        <v>287.9041231545317</v>
       </c>
       <c r="Y30" t="n">
-        <v>271.4605187265409</v>
+        <v>170.4434535324213</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.8483672152175</v>
+        <v>525.9739370809634</v>
       </c>
       <c r="C31" t="n">
-        <v>513.6396570042258</v>
+        <v>525.9739370809634</v>
       </c>
       <c r="D31" t="n">
-        <v>513.6396570042258</v>
+        <v>466.1569268114712</v>
       </c>
       <c r="E31" t="n">
-        <v>456.0261925646762</v>
+        <v>466.1569268114712</v>
       </c>
       <c r="F31" t="n">
-        <v>399.4358742096094</v>
+        <v>466.1569268114712</v>
       </c>
       <c r="G31" t="n">
-        <v>320.0476454146158</v>
+        <v>386.7686980164776</v>
       </c>
       <c r="H31" t="n">
-        <v>320.0476454146158</v>
+        <v>386.7686980164776</v>
       </c>
       <c r="I31" t="n">
         <v>320.0476454146158</v>
@@ -6657,16 +6657,16 @@
         <v>625.1972029026138</v>
       </c>
       <c r="V31" t="n">
-        <v>625.1972029026138</v>
+        <v>525.9739370809634</v>
       </c>
       <c r="W31" t="n">
-        <v>625.1972029026138</v>
+        <v>525.9739370809634</v>
       </c>
       <c r="X31" t="n">
-        <v>625.1972029026138</v>
+        <v>525.9739370809634</v>
       </c>
       <c r="Y31" t="n">
-        <v>625.1972029026138</v>
+        <v>525.9739370809634</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
@@ -6700,7 +6700,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>217.424215214693</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="C33" t="n">
-        <v>85.53081291060136</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="D33" t="n">
-        <v>85.53081291060136</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="E33" t="n">
-        <v>85.53081291060136</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="F33" t="n">
-        <v>85.53081291060136</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>67.02114527602092</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>833.1994379383405</v>
+        <v>961.4108689625094</v>
       </c>
       <c r="T33" t="n">
-        <v>673.5724702741418</v>
+        <v>801.7839012983108</v>
       </c>
       <c r="U33" t="n">
-        <v>673.5724702741418</v>
+        <v>801.7839012983108</v>
       </c>
       <c r="V33" t="n">
-        <v>673.5724702741418</v>
+        <v>609.1914200436033</v>
       </c>
       <c r="W33" t="n">
-        <v>673.5724702741418</v>
+        <v>397.513690292437</v>
       </c>
       <c r="X33" t="n">
-        <v>508.2805970456443</v>
+        <v>232.2218170639395</v>
       </c>
       <c r="Y33" t="n">
-        <v>343.0799252577257</v>
+        <v>67.02114527602092</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>251.7628406763723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>251.7628406763723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>251.7628406763723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4093740710145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>146.4093740710145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6861,49 +6861,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>38.94703660278103</v>
+        <v>38.94703660278101</v>
       </c>
       <c r="L34" t="n">
-        <v>107.9738520106864</v>
+        <v>107.9738520106863</v>
       </c>
       <c r="M34" t="n">
-        <v>188.8745806031009</v>
+        <v>188.8745806031008</v>
       </c>
       <c r="N34" t="n">
-        <v>274.2781216587295</v>
+        <v>274.2781216587294</v>
       </c>
       <c r="O34" t="n">
-        <v>340.3300886938211</v>
+        <v>340.330088693821</v>
       </c>
       <c r="P34" t="n">
-        <v>379.348552766258</v>
+        <v>379.3485527662579</v>
       </c>
       <c r="Q34" t="n">
-        <v>379.348552766258</v>
+        <v>334.8758128223898</v>
       </c>
       <c r="R34" t="n">
-        <v>379.348552766258</v>
+        <v>198.3512060851125</v>
       </c>
       <c r="S34" t="n">
-        <v>379.348552766258</v>
+        <v>198.3512060851125</v>
       </c>
       <c r="T34" t="n">
-        <v>379.348552766258</v>
+        <v>198.3512060851125</v>
       </c>
       <c r="U34" t="n">
-        <v>379.348552766258</v>
+        <v>198.3512060851125</v>
       </c>
       <c r="V34" t="n">
-        <v>379.348552766258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>379.348552766258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>379.348552766258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>379.348552766258</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6943,7 +6943,7 @@
         <v>119.053610795071</v>
       </c>
       <c r="L35" t="n">
-        <v>299.1294623797295</v>
+        <v>166.1197678900532</v>
       </c>
       <c r="M35" t="n">
         <v>364.5975033313922</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.7372497568985</v>
+        <v>112.2098033244978</v>
       </c>
       <c r="C36" t="n">
-        <v>16.0386048841486</v>
+        <v>112.2098033244978</v>
       </c>
       <c r="D36" t="n">
-        <v>16.0386048841486</v>
+        <v>112.2098033244978</v>
       </c>
       <c r="E36" t="n">
-        <v>16.0386048841486</v>
+        <v>112.2098033244978</v>
       </c>
       <c r="F36" t="n">
-        <v>16.0386048841486</v>
+        <v>112.2098033244978</v>
       </c>
       <c r="G36" t="n">
         <v>16.0386048841486</v>
@@ -7043,25 +7043,25 @@
         <v>801.9302442074302</v>
       </c>
       <c r="S36" t="n">
-        <v>671.0725266351344</v>
+        <v>801.9302442074302</v>
       </c>
       <c r="T36" t="n">
-        <v>511.4455589709358</v>
+        <v>642.3032765432315</v>
       </c>
       <c r="U36" t="n">
-        <v>511.4455589709358</v>
+        <v>642.3032765432315</v>
       </c>
       <c r="V36" t="n">
-        <v>511.4455589709358</v>
+        <v>642.3032765432315</v>
       </c>
       <c r="W36" t="n">
-        <v>308.9379215448171</v>
+        <v>439.7956391171127</v>
       </c>
       <c r="X36" t="n">
-        <v>308.9379215448171</v>
+        <v>274.5037658886152</v>
       </c>
       <c r="Y36" t="n">
-        <v>143.7372497568985</v>
+        <v>112.2098033244978</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.873062373699</v>
+        <v>34.50953926087064</v>
       </c>
       <c r="C37" t="n">
-        <v>197.873062373699</v>
+        <v>34.50953926087064</v>
       </c>
       <c r="D37" t="n">
-        <v>197.873062373699</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="E37" t="n">
-        <v>197.873062373699</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="F37" t="n">
-        <v>197.873062373699</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="G37" t="n">
-        <v>197.873062373699</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="H37" t="n">
-        <v>182.2422348128366</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="I37" t="n">
-        <v>67.78118004516658</v>
+        <v>16.0386048841486</v>
       </c>
       <c r="J37" t="n">
         <v>16.0386048841486</v>
       </c>
       <c r="K37" t="n">
-        <v>35.70449837671691</v>
+        <v>35.70449837671689</v>
       </c>
       <c r="L37" t="n">
         <v>104.7313137846222</v>
@@ -7107,10 +7107,10 @@
         <v>185.6320423770367</v>
       </c>
       <c r="N37" t="n">
-        <v>271.0355834326654</v>
+        <v>271.0355834326653</v>
       </c>
       <c r="O37" t="n">
-        <v>337.087550467757</v>
+        <v>337.0875504677569</v>
       </c>
       <c r="P37" t="n">
         <v>376.1060145401938</v>
@@ -7128,19 +7128,19 @@
         <v>376.1060145401938</v>
       </c>
       <c r="U37" t="n">
-        <v>376.1060145401938</v>
+        <v>173.598377114075</v>
       </c>
       <c r="V37" t="n">
-        <v>376.1060145401938</v>
+        <v>173.598377114075</v>
       </c>
       <c r="W37" t="n">
-        <v>376.1060145401938</v>
+        <v>173.598377114075</v>
       </c>
       <c r="X37" t="n">
-        <v>376.1060145401938</v>
+        <v>173.598377114075</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.873062373699</v>
+        <v>173.598377114075</v>
       </c>
     </row>
     <row r="38">
@@ -7177,19 +7177,19 @@
         <v>15.79872807111763</v>
       </c>
       <c r="K38" t="n">
-        <v>118.81373398204</v>
+        <v>15.79872807111763</v>
       </c>
       <c r="L38" t="n">
-        <v>298.8895855666985</v>
+        <v>195.8745796557762</v>
       </c>
       <c r="M38" t="n">
-        <v>494.3988454467792</v>
+        <v>391.3838395358569</v>
       </c>
       <c r="N38" t="n">
-        <v>551.0813981211825</v>
+        <v>586.8930994159375</v>
       </c>
       <c r="O38" t="n">
-        <v>700.2763482638305</v>
+        <v>736.0880495585856</v>
       </c>
       <c r="P38" t="n">
         <v>789.9364035558815</v>
@@ -7207,10 +7207,10 @@
         <v>329.7516106571628</v>
       </c>
       <c r="U38" t="n">
-        <v>215.2776178579564</v>
+        <v>329.7516106571628</v>
       </c>
       <c r="V38" t="n">
-        <v>15.79872807111763</v>
+        <v>130.272720870324</v>
       </c>
       <c r="W38" t="n">
         <v>15.79872807111763</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>421.0476201151598</v>
+        <v>334.4943682887401</v>
       </c>
       <c r="C39" t="n">
-        <v>289.1542178110681</v>
+        <v>334.4943682887401</v>
       </c>
       <c r="D39" t="n">
-        <v>182.7794351268521</v>
+        <v>334.4943682887401</v>
       </c>
       <c r="E39" t="n">
-        <v>182.7794351268521</v>
+        <v>334.4943682887401</v>
       </c>
       <c r="F39" t="n">
-        <v>182.7794351268521</v>
+        <v>230.5194372926604</v>
       </c>
       <c r="G39" t="n">
-        <v>86.60823668650298</v>
+        <v>134.3482388523112</v>
       </c>
       <c r="H39" t="n">
-        <v>15.79872807111763</v>
+        <v>63.53873023692583</v>
       </c>
       <c r="I39" t="n">
         <v>15.79872807111763</v>
@@ -7259,10 +7259,10 @@
         <v>141.156288128955</v>
       </c>
       <c r="L39" t="n">
-        <v>336.6655480090357</v>
+        <v>141.156288128955</v>
       </c>
       <c r="M39" t="n">
-        <v>411.78366606245</v>
+        <v>216.2744061823694</v>
       </c>
       <c r="N39" t="n">
         <v>411.78366606245</v>
@@ -7277,28 +7277,28 @@
         <v>789.9364035558815</v>
       </c>
       <c r="R39" t="n">
-        <v>789.9364035558815</v>
+        <v>731.3265010858025</v>
       </c>
       <c r="S39" t="n">
-        <v>785.8183831304959</v>
+        <v>731.3265010858025</v>
       </c>
       <c r="T39" t="n">
-        <v>785.8183831304959</v>
+        <v>731.3265010858025</v>
       </c>
       <c r="U39" t="n">
-        <v>785.8183831304959</v>
+        <v>699.1739298634974</v>
       </c>
       <c r="V39" t="n">
-        <v>785.8183831304959</v>
+        <v>699.1739298634974</v>
       </c>
       <c r="W39" t="n">
-        <v>586.3394933436572</v>
+        <v>499.6950400766586</v>
       </c>
       <c r="X39" t="n">
-        <v>421.0476201151598</v>
+        <v>499.6950400766586</v>
       </c>
       <c r="Y39" t="n">
-        <v>421.0476201151598</v>
+        <v>334.4943682887401</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>590.4575137690427</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="C40" t="n">
-        <v>590.4575137690427</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="D40" t="n">
-        <v>590.4575137690427</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="E40" t="n">
-        <v>534.1993144207112</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="F40" t="n">
-        <v>429.8689938998362</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="G40" t="n">
-        <v>429.8689938998362</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="H40" t="n">
-        <v>429.8689938998362</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="I40" t="n">
-        <v>429.8689938998362</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="J40" t="n">
-        <v>429.8689938998362</v>
+        <v>429.8689938998365</v>
       </c>
       <c r="K40" t="n">
-        <v>449.5348873924045</v>
+        <v>449.5348873924048</v>
       </c>
       <c r="L40" t="n">
-        <v>518.5617028003098</v>
+        <v>518.5617028003101</v>
       </c>
       <c r="M40" t="n">
-        <v>599.4624313927243</v>
+        <v>599.4624313927245</v>
       </c>
       <c r="N40" t="n">
-        <v>684.865972448353</v>
+        <v>684.8659724483531</v>
       </c>
       <c r="O40" t="n">
-        <v>750.9179394834446</v>
+        <v>750.9179394834447</v>
       </c>
       <c r="P40" t="n">
         <v>789.9364035558815</v>
@@ -7365,19 +7365,19 @@
         <v>789.9364035558815</v>
       </c>
       <c r="U40" t="n">
-        <v>590.4575137690427</v>
+        <v>789.9364035558815</v>
       </c>
       <c r="V40" t="n">
-        <v>590.4575137690427</v>
+        <v>789.9364035558815</v>
       </c>
       <c r="W40" t="n">
-        <v>590.4575137690427</v>
+        <v>789.9364035558815</v>
       </c>
       <c r="X40" t="n">
-        <v>590.4575137690427</v>
+        <v>747.1907839195356</v>
       </c>
       <c r="Y40" t="n">
-        <v>590.4575137690427</v>
+        <v>568.9578317530409</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.137197067788758</v>
+        <v>83.6270590348185</v>
       </c>
       <c r="C41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="D41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="E41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="F41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="G41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="H41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="I41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="J41" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="K41" t="n">
-        <v>82.08501078167464</v>
+        <v>82.08501078167461</v>
       </c>
       <c r="L41" t="n">
+        <v>82.08501078167461</v>
+      </c>
+      <c r="M41" t="n">
         <v>158.0328244955605</v>
       </c>
-      <c r="M41" t="n">
-        <v>230.912039675552</v>
-      </c>
       <c r="N41" t="n">
-        <v>230.912039675552</v>
+        <v>158.0328244955605</v>
       </c>
       <c r="O41" t="n">
-        <v>230.912039675552</v>
+        <v>233.9806382094463</v>
       </c>
       <c r="P41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="Q41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="R41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="S41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="T41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="U41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="V41" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="W41" t="n">
-        <v>238.6067829688781</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="X41" t="n">
-        <v>161.1169210018483</v>
+        <v>229.369991422408</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.62705903481853</v>
+        <v>151.8801294553783</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>161.1169210018483</v>
+        <v>151.8801294553783</v>
       </c>
       <c r="C42" t="n">
-        <v>83.62705903481853</v>
+        <v>74.39026748834853</v>
       </c>
       <c r="D42" t="n">
-        <v>83.62705903481853</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="E42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="F42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="G42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="H42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="I42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="J42" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="K42" t="n">
-        <v>82.08501078167464</v>
+        <v>82.08501078167461</v>
       </c>
       <c r="L42" t="n">
         <v>158.0328244955605</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9806382094464</v>
+        <v>233.9806382094463</v>
       </c>
       <c r="N42" t="n">
-        <v>237.4652948761086</v>
+        <v>237.4652948761085</v>
       </c>
       <c r="O42" t="n">
-        <v>237.4652948761086</v>
+        <v>237.4652948761085</v>
       </c>
       <c r="P42" t="n">
-        <v>237.4652948761086</v>
+        <v>237.4652948761085</v>
       </c>
       <c r="Q42" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="R42" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="S42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="T42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="U42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="V42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="W42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="X42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
       <c r="Y42" t="n">
-        <v>229.3699914224081</v>
+        <v>229.369991422408</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="C43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="D43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="E43" t="n">
-        <v>145.4612495640636</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4612495640636</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="G43" t="n">
         <v>145.4612495640636</v>
@@ -7566,55 +7566,55 @@
         <v>145.4612495640636</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97138759703381</v>
+        <v>67.97138759703383</v>
       </c>
       <c r="J43" t="n">
-        <v>6.137197067788758</v>
+        <v>6.137197067788756</v>
       </c>
       <c r="K43" t="n">
         <v>15.91229833795768</v>
       </c>
       <c r="L43" t="n">
-        <v>75.04832152346363</v>
+        <v>75.04832152346364</v>
       </c>
       <c r="M43" t="n">
         <v>146.0582578934788</v>
       </c>
       <c r="N43" t="n">
-        <v>221.5710067267081</v>
+        <v>221.571006726708</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7321815394004</v>
+        <v>277.7321815394002</v>
       </c>
       <c r="P43" t="n">
-        <v>306.8598533894379</v>
+        <v>306.8598533894378</v>
       </c>
       <c r="Q43" t="n">
-        <v>252.2954980773427</v>
+        <v>252.2954980773426</v>
       </c>
       <c r="R43" t="n">
-        <v>252.2954980773427</v>
+        <v>252.2954980773426</v>
       </c>
       <c r="S43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="T43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="U43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="V43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="W43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="X43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.9511115310933</v>
+        <v>174.8056361103128</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="C44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="D44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="E44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9207306627541</v>
+        <v>145.6231865199316</v>
       </c>
       <c r="G44" t="n">
-        <v>145.6231865199317</v>
+        <v>145.6231865199316</v>
       </c>
       <c r="H44" t="n">
-        <v>71.32564237710939</v>
+        <v>80.1819096389338</v>
       </c>
       <c r="I44" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="J44" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="K44" t="n">
-        <v>78.70338851049169</v>
+        <v>78.70338851049164</v>
       </c>
       <c r="L44" t="n">
-        <v>151.5224115248719</v>
+        <v>151.5224115248718</v>
       </c>
       <c r="M44" t="n">
-        <v>221.3992517911963</v>
+        <v>151.5224115248718</v>
       </c>
       <c r="N44" t="n">
-        <v>221.3992517911963</v>
+        <v>221.3992517911961</v>
       </c>
       <c r="O44" t="n">
-        <v>221.3992517911963</v>
+        <v>221.3992517911961</v>
       </c>
       <c r="P44" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="Q44" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="R44" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="S44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="T44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="U44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="V44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="W44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="X44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="Y44" t="n">
-        <v>294.2182748055764</v>
+        <v>219.9207306627539</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.884365496111529</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="C45" t="n">
-        <v>5.884365496111529</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="D45" t="n">
-        <v>5.884365496111529</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="E45" t="n">
-        <v>5.884365496111529</v>
+        <v>145.6231865199316</v>
       </c>
       <c r="F45" t="n">
-        <v>5.884365496111529</v>
+        <v>71.32564237710933</v>
       </c>
       <c r="G45" t="n">
-        <v>5.884365496111529</v>
+        <v>71.32564237710933</v>
       </c>
       <c r="H45" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="I45" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="J45" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="K45" t="n">
-        <v>78.70338851049169</v>
+        <v>75.76120576243589</v>
       </c>
       <c r="L45" t="n">
-        <v>78.70338851049169</v>
+        <v>75.76120576243589</v>
       </c>
       <c r="M45" t="n">
-        <v>79.18567026348681</v>
+        <v>148.580228776816</v>
       </c>
       <c r="N45" t="n">
-        <v>79.18567026348681</v>
+        <v>148.580228776816</v>
       </c>
       <c r="O45" t="n">
-        <v>152.004693277867</v>
+        <v>221.3992517911961</v>
       </c>
       <c r="P45" t="n">
-        <v>224.8237162922471</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="Q45" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="R45" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="S45" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="T45" t="n">
-        <v>219.9207306627541</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="U45" t="n">
-        <v>145.6231865199317</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="V45" t="n">
-        <v>71.32564237710939</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="W45" t="n">
-        <v>71.32564237710939</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="X45" t="n">
-        <v>71.32564237710939</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="Y45" t="n">
-        <v>5.884365496111529</v>
+        <v>219.9207306627539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.4794537817562</v>
+        <v>218.2920181898574</v>
       </c>
       <c r="C46" t="n">
-        <v>80.18190963893386</v>
+        <v>218.2920181898574</v>
       </c>
       <c r="D46" t="n">
-        <v>80.18190963893386</v>
+        <v>218.2920181898574</v>
       </c>
       <c r="E46" t="n">
-        <v>5.884365496111529</v>
+        <v>218.2920181898574</v>
       </c>
       <c r="F46" t="n">
-        <v>5.884365496111529</v>
+        <v>218.2920181898574</v>
       </c>
       <c r="G46" t="n">
-        <v>5.884365496111529</v>
+        <v>143.9944740470351</v>
       </c>
       <c r="H46" t="n">
-        <v>5.884365496111529</v>
+        <v>143.9944740470351</v>
       </c>
       <c r="I46" t="n">
-        <v>5.884365496111529</v>
+        <v>69.69692990421287</v>
       </c>
       <c r="J46" t="n">
-        <v>5.884365496111529</v>
+        <v>5.884365496111524</v>
       </c>
       <c r="K46" t="n">
-        <v>13.72046252761348</v>
+        <v>13.72046252761342</v>
       </c>
       <c r="L46" t="n">
-        <v>70.91748147445239</v>
+        <v>70.91748147445232</v>
       </c>
       <c r="M46" t="n">
-        <v>139.9884136058005</v>
+        <v>139.9884136058004</v>
       </c>
       <c r="N46" t="n">
-        <v>212.8074366201807</v>
+        <v>212.8074366201805</v>
       </c>
       <c r="O46" t="n">
-        <v>267.0296071942059</v>
+        <v>267.0296071942057</v>
       </c>
       <c r="P46" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="Q46" t="n">
-        <v>294.2182748055764</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="R46" t="n">
-        <v>228.7769979245786</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="S46" t="n">
-        <v>228.7769979245786</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="T46" t="n">
-        <v>228.7769979245786</v>
+        <v>294.2182748055762</v>
       </c>
       <c r="U46" t="n">
-        <v>154.4794537817562</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4794537817562</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="W46" t="n">
-        <v>154.4794537817562</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="X46" t="n">
-        <v>154.4794537817562</v>
+        <v>219.9207306627539</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.4794537817562</v>
+        <v>218.2920181898574</v>
       </c>
     </row>
   </sheetData>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.9839333020628</v>
+        <v>260.6215788707821</v>
       </c>
       <c r="L11" t="n">
         <v>276.2981427957887</v>
       </c>
       <c r="M11" t="n">
-        <v>270.8779610530742</v>
+        <v>269.240315484355</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7355212314412</v>
+        <v>178.3731668001605</v>
       </c>
       <c r="L12" t="n">
-        <v>179.0861076056757</v>
+        <v>177.4484620369564</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>263.6200390336692</v>
       </c>
       <c r="L14" t="n">
-        <v>279.2966029586759</v>
+        <v>277.5378074843854</v>
       </c>
       <c r="M14" t="n">
-        <v>273.8764212159614</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>271.1844561109891</v>
+        <v>272.9432515852796</v>
       </c>
       <c r="O14" t="n">
         <v>273.6283994103754</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>179.6128314887572</v>
+        <v>181.3716269630476</v>
       </c>
       <c r="L15" t="n">
-        <v>182.0845677685629</v>
+        <v>182.0845677685628</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>183.9054264364165</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9023,7 +9023,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>177.5045954030189</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>183.5119620747102</v>
@@ -9096,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.2157324539219</v>
+        <v>171.2157324539218</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
         <v>400.0657405002868</v>
       </c>
       <c r="M17" t="n">
-        <v>371.2826094476326</v>
+        <v>394.6455587575723</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>393.7123891268905</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>238.1919948574276</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>229.6994892154074</v>
+        <v>173.1712048270155</v>
       </c>
       <c r="N18" t="n">
         <v>295.6410376136329</v>
@@ -9263,7 +9263,7 @@
         <v>298.2737329446298</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>403.2261351462522</v>
+        <v>322.6521237651943</v>
       </c>
       <c r="M20" t="n">
         <v>397.8059534035377</v>
@@ -9415,10 +9415,10 @@
         <v>396.8727837728559</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>287.8711051052992</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>172.6242526178684</v>
+        <v>306.0140999561391</v>
       </c>
       <c r="M21" t="n">
         <v>309.5937540982833</v>
       </c>
       <c r="N21" t="n">
-        <v>298.8014322595983</v>
+        <v>165.4115849213275</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10591,10 +10591,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>283.3079877932016</v>
       </c>
       <c r="M35" t="n">
-        <v>296.4755675218815</v>
+        <v>430.8287942791303</v>
       </c>
       <c r="N35" t="n">
         <v>429.8956246484485</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,13 +10834,13 @@
         <v>427.8303341162431</v>
       </c>
       <c r="N38" t="n">
-        <v>286.6681673081094</v>
+        <v>426.8971644855613</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>285.6252725202149</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>336.0384806688446</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>218.0109208446591</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>328.8258129723037</v>
       </c>
       <c r="O39" t="n">
         <v>340.0803453334148</v>
@@ -11065,19 +11065,19 @@
         <v>296.80481439234</v>
       </c>
       <c r="L41" t="n">
-        <v>312.4813783173467</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>303.961602095951</v>
+        <v>307.0611965746322</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>306.8131747690462</v>
       </c>
       <c r="P41" t="n">
-        <v>307.947959102629</v>
+        <v>304.8483646239478</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11305,10 +11305,10 @@
         <v>309.3209836713813</v>
       </c>
       <c r="M44" t="n">
-        <v>300.9289001629539</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>299.9957305322721</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.3960076757531</v>
+        <v>208.4241059100402</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.621187207872</v>
+        <v>215.6886026234124</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11396,7 +11396,7 @@
         <v>207.5289761157243</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>344.6923424061382</v>
       </c>
       <c r="E11" t="n">
-        <v>338.1979151288187</v>
+        <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
         <v>396.8853465271666</v>
@@ -23308,7 +23308,7 @@
         <v>99.3466909008034</v>
       </c>
       <c r="S11" t="n">
-        <v>199.0293703717005</v>
+        <v>165.2876146428023</v>
       </c>
       <c r="T11" t="n">
         <v>213.1051503495866</v>
@@ -23339,13 +23339,13 @@
         <v>156.5424844353225</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1860719479695</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D12" t="n">
         <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>147.6543812408561</v>
+        <v>107.1226534150547</v>
       </c>
       <c r="F12" t="n">
         <v>135.0785131788391</v>
@@ -23387,7 +23387,7 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
-        <v>161.692471889293</v>
+        <v>125.9921260203271</v>
       </c>
       <c r="T12" t="n">
         <v>190.1740294802768</v>
@@ -23396,7 +23396,7 @@
         <v>175.4189550406285</v>
       </c>
       <c r="V12" t="n">
-        <v>187.1095420659145</v>
+        <v>222.8098879348805</v>
       </c>
       <c r="W12" t="n">
         <v>241.7042839463748</v>
@@ -23472,10 +23472,10 @@
         <v>217.9548902137367</v>
       </c>
       <c r="U13" t="n">
-        <v>276.3283301419461</v>
+        <v>240.6279842729801</v>
       </c>
       <c r="V13" t="n">
-        <v>206.4465982403173</v>
+        <v>201.6152162834817</v>
       </c>
       <c r="W13" t="n">
         <v>236.0005712962447</v>
@@ -23484,7 +23484,7 @@
         <v>175.1872283486909</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.0622263117485</v>
+        <v>208.59395413755</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>342.7337522660704</v>
       </c>
       <c r="E14" t="n">
-        <v>369.9810807176493</v>
+        <v>331.6396911372123</v>
       </c>
       <c r="F14" t="n">
-        <v>351.3965683984102</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G14" t="n">
-        <v>403.3534481605225</v>
+        <v>359.8232601718339</v>
       </c>
       <c r="H14" t="n">
         <v>283.9953247724659</v>
@@ -23563,7 +23563,7 @@
         <v>357.7818113238565</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.9472597210041</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>160.7592096337032</v>
       </c>
       <c r="D15" t="n">
-        <v>97.15438662958928</v>
+        <v>91.96558822133758</v>
       </c>
       <c r="E15" t="n">
         <v>102.1656031120998</v>
       </c>
       <c r="F15" t="n">
-        <v>89.58973505008269</v>
+        <v>89.58973505008271</v>
       </c>
       <c r="G15" t="n">
-        <v>81.86403981990945</v>
+        <v>87.05283822816116</v>
       </c>
       <c r="H15" t="n">
         <v>100.2861548818839</v>
@@ -23664,19 +23664,19 @@
         <v>134.4846732919567</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4717586683187</v>
+        <v>95.13036908788177</v>
       </c>
       <c r="G16" t="n">
-        <v>156.0416900038462</v>
+        <v>112.5115020151576</v>
       </c>
       <c r="H16" t="n">
-        <v>150.2778831528271</v>
+        <v>106.7476951641384</v>
       </c>
       <c r="I16" t="n">
-        <v>143.5011855726458</v>
+        <v>99.97099758395711</v>
       </c>
       <c r="J16" t="n">
-        <v>37.87970277337159</v>
+        <v>81.40989076206026</v>
       </c>
       <c r="K16" t="n">
         <v>10.32020247127033</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.6825659083932</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R16" t="n">
-        <v>121.8139140338683</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S16" t="n">
-        <v>173.7259191019228</v>
+        <v>212.0673086823597</v>
       </c>
       <c r="T16" t="n">
         <v>215.996300073669</v>
@@ -23791,10 +23791,10 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V17" t="n">
-        <v>93.64077969163205</v>
+        <v>93.64077969163199</v>
       </c>
       <c r="W17" t="n">
-        <v>95.54501033569841</v>
+        <v>95.54501033569838</v>
       </c>
       <c r="X17" t="n">
         <v>116.0351422967544</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D18" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.50355817418787</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>45.12000589719588</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.22039932455513</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D19" t="n">
         <v>59.21884016679728</v>
@@ -23904,7 +23904,7 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H19" t="n">
         <v>72.8305396560245</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>32.82703995487637</v>
       </c>
       <c r="X19" t="n">
         <v>136.3130225376221</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>91.82786327075576</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>125.0740170445818</v>
       </c>
       <c r="F20" t="n">
-        <v>150.0196927140314</v>
+        <v>169.9808913590421</v>
       </c>
       <c r="G20" t="n">
         <v>325.90610466372</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S20" t="n">
         <v>119.6234367348303</v>
@@ -24025,7 +24025,7 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U20" t="n">
-        <v>74.92298361490182</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V20" t="n">
         <v>238.3556256187198</v>
@@ -24037,7 +24037,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.8413058046385</v>
+        <v>129.3815856283736</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,16 +24056,16 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S21" t="n">
-        <v>52.49724741320308</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>131.3803742792429</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W21" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>66.86128092601746</v>
       </c>
       <c r="V22" t="n">
-        <v>71.43256806351206</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W22" t="n">
         <v>197.1263654851759</v>
@@ -24195,7 +24195,7 @@
         <v>136.3130225376221</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D23" t="n">
         <v>265.2864087692679</v>
@@ -24217,10 +24217,10 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
-        <v>76.46512401263732</v>
+        <v>105.1940272468543</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H23" t="n">
         <v>9.063880386693029</v>
@@ -24259,13 +24259,13 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>80.70418786675648</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
         <v>259.8443358659979</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>113.2677391580005</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>103.1661907565724</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>3.962547265257697</v>
@@ -24420,19 +24420,19 @@
         <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>43.6669494510563</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>131.1267967421245</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="26">
@@ -24493,10 +24493,10 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>80.70418786675648</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>85.45845487720939</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X26" t="n">
         <v>280.334467827054</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>49.36323517853452</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>38.78652845641814</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
         <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
         <v>66.05384207584321</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>83.15846876360936</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>144.7194187254856</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24682,7 +24682,7 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>34.86197004193343</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
         <v>265.2864087692679</v>
@@ -24697,7 +24697,7 @@
         <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>138.8234366242373</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
         <v>121.0792567189908</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>18.83004698833889</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>120.0243668161514</v>
       </c>
       <c r="Y29" t="n">
         <v>296.8413058046385</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>59.95805913612371</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>16.78615210020729</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>57.84356513833093</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>64.50997730897912</v>
       </c>
       <c r="W31" t="n">
         <v>197.1263654851759</v>
@@ -24925,7 +24925,7 @@
         <v>312.549010913418</v>
       </c>
       <c r="E32" t="n">
-        <v>127.5109537215547</v>
+        <v>98.78205048733776</v>
       </c>
       <c r="F32" t="n">
         <v>123.7277261567874</v>
@@ -24967,7 +24967,7 @@
         <v>107.7350872338847</v>
       </c>
       <c r="S32" t="n">
-        <v>166.8860388789803</v>
+        <v>166.8860388789804</v>
       </c>
       <c r="T32" t="n">
         <v>180.9618188568664</v>
@@ -24976,13 +24976,13 @@
         <v>209.2116222005715</v>
       </c>
       <c r="V32" t="n">
-        <v>285.6182277628699</v>
+        <v>73.33284211942794</v>
       </c>
       <c r="W32" t="n">
         <v>307.106938010148</v>
       </c>
       <c r="X32" t="n">
-        <v>86.58278109354501</v>
+        <v>327.5970699712041</v>
       </c>
       <c r="Y32" t="n">
         <v>344.1039079487886</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>124.3991529426024</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130.5744682810508</v>
       </c>
       <c r="D33" t="n">
         <v>105.3110348573738</v>
@@ -25010,13 +25010,13 @@
         <v>102.9351816861189</v>
       </c>
       <c r="G33" t="n">
-        <v>29.62231335356091</v>
+        <v>95.20948645594567</v>
       </c>
       <c r="H33" t="n">
-        <v>70.10141352923148</v>
+        <v>70.10141352923151</v>
       </c>
       <c r="I33" t="n">
-        <v>47.26260214415009</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.02380344537815</v>
+        <v>58.02380344537817</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>126.9293167139273</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>183.8073513737098</v>
       </c>
       <c r="V33" t="n">
-        <v>190.6665564421603</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>209.5609524536546</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.38809450568552</v>
+        <v>137.6979494746723</v>
       </c>
       <c r="C34" t="n">
         <v>125.1127903913629</v>
@@ -25083,13 +25083,13 @@
         <v>106.4814423109474</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.2999319393042</v>
       </c>
       <c r="F34" t="n">
         <v>103.2870173156663</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.8569486511938</v>
       </c>
       <c r="H34" t="n">
         <v>120.0931418001746</v>
@@ -25098,7 +25098,7 @@
         <v>113.3164442199933</v>
       </c>
       <c r="J34" t="n">
-        <v>51.22514940940779</v>
+        <v>51.22514940940781</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.0280125444294</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.1593606699045</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.8825673297073</v>
@@ -25134,7 +25134,7 @@
         <v>244.1849986492259</v>
       </c>
       <c r="V34" t="n">
-        <v>210.003612616563</v>
+        <v>32.7242502714123</v>
       </c>
       <c r="W34" t="n">
         <v>244.388967629326</v>
@@ -25204,7 +25204,7 @@
         <v>107.7350872338847</v>
       </c>
       <c r="S35" t="n">
-        <v>166.8860388789803</v>
+        <v>166.8860388789804</v>
       </c>
       <c r="T35" t="n">
         <v>180.9618188568664</v>
@@ -25235,7 +25235,7 @@
         <v>124.3991529426024</v>
       </c>
       <c r="C36" t="n">
-        <v>4.152809857028387</v>
+        <v>130.5744682810508</v>
       </c>
       <c r="D36" t="n">
         <v>105.3110348573738</v>
@@ -25247,13 +25247,13 @@
         <v>102.9351816861189</v>
       </c>
       <c r="G36" t="n">
-        <v>95.20948645594565</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>70.10141352923148</v>
+        <v>70.10141352923151</v>
       </c>
       <c r="I36" t="n">
-        <v>47.26260214415009</v>
+        <v>47.26260214415012</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.02380344537815</v>
+        <v>58.02380344537817</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>129.5491403965729</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>9.078391401797091</v>
       </c>
       <c r="X36" t="n">
-        <v>163.6389544962125</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.877642131563078</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.6979494746723</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>125.1127903913629</v>
       </c>
       <c r="D37" t="n">
-        <v>106.4814423109474</v>
+        <v>88.19521727799257</v>
       </c>
       <c r="E37" t="n">
         <v>104.2999319393042</v>
@@ -25329,13 +25329,13 @@
         <v>125.8569486511938</v>
       </c>
       <c r="H37" t="n">
-        <v>104.6186225149208</v>
+        <v>120.0931418001746</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>113.3164442199933</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>51.22514940940781</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.0280125444294</v>
+        <v>44.02801254442942</v>
       </c>
       <c r="R37" t="n">
         <v>135.1593606699045</v>
@@ -25368,7 +25368,7 @@
         <v>185.8115587210165</v>
       </c>
       <c r="U37" t="n">
-        <v>244.1849986492259</v>
+        <v>43.70243759736837</v>
       </c>
       <c r="V37" t="n">
         <v>210.003612616563</v>
@@ -25380,7 +25380,7 @@
         <v>183.5756246817722</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>176.4506226448298</v>
       </c>
     </row>
     <row r="38">
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>95.8823693293572</v>
+        <v>209.2116222005715</v>
       </c>
       <c r="V38" t="n">
         <v>88.13412687389956</v>
       </c>
       <c r="W38" t="n">
-        <v>307.106938010148</v>
+        <v>193.7776851389337</v>
       </c>
       <c r="X38" t="n">
         <v>327.5970699712041</v>
@@ -25472,16 +25472,16 @@
         <v>124.3991529426024</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>130.5744682810508</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>105.3110348573738</v>
       </c>
       <c r="E39" t="n">
         <v>115.511049748136</v>
       </c>
       <c r="F39" t="n">
-        <v>102.9351816861189</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>47.26260214415009</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.02380344537815</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>125.4723001754411</v>
+        <v>129.5491403965729</v>
       </c>
       <c r="T39" t="n">
         <v>158.0306979875566</v>
       </c>
       <c r="U39" t="n">
-        <v>183.8073513737098</v>
+        <v>151.9763058636278</v>
       </c>
       <c r="V39" t="n">
         <v>190.6665564421603</v>
@@ -25535,10 +25535,10 @@
         <v>12.07685156468426</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>163.6389544962125</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.5486650700394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.6979494746723</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>125.1127903913629</v>
@@ -25557,10 +25557,10 @@
         <v>106.4814423109474</v>
       </c>
       <c r="E40" t="n">
-        <v>48.60431458445593</v>
+        <v>104.2999319393042</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>103.2870173156663</v>
       </c>
       <c r="G40" t="n">
         <v>125.8569486511938</v>
@@ -25572,7 +25572,7 @@
         <v>113.3164442199933</v>
       </c>
       <c r="J40" t="n">
-        <v>51.22514940940779</v>
+        <v>51.22514940940781</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.0280125444294</v>
+        <v>44.02801254442942</v>
       </c>
       <c r="R40" t="n">
         <v>135.1593606699045</v>
@@ -25605,7 +25605,7 @@
         <v>185.8115587210165</v>
       </c>
       <c r="U40" t="n">
-        <v>46.70089776025554</v>
+        <v>244.1849986492259</v>
       </c>
       <c r="V40" t="n">
         <v>210.003612616563</v>
@@ -25614,10 +25614,10 @@
         <v>244.388967629326</v>
       </c>
       <c r="X40" t="n">
-        <v>183.5756246817722</v>
+        <v>141.2574612417898</v>
       </c>
       <c r="Y40" t="n">
-        <v>176.4506226448298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.875546823401</v>
+        <v>283.0199704544062</v>
       </c>
       <c r="C41" t="n">
-        <v>333.1295602782874</v>
+        <v>256.4145969309279</v>
       </c>
       <c r="D41" t="n">
         <v>322.5397101279628</v>
@@ -25678,7 +25678,7 @@
         <v>117.7257864484295</v>
       </c>
       <c r="S41" t="n">
-        <v>176.8767380935251</v>
+        <v>176.8767380935252</v>
       </c>
       <c r="T41" t="n">
         <v>190.9525180714112</v>
@@ -25690,7 +25690,7 @@
         <v>295.6089269774147</v>
       </c>
       <c r="W41" t="n">
-        <v>249.5270975083386</v>
+        <v>317.0976372246928</v>
       </c>
       <c r="X41" t="n">
         <v>260.8728058383894</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>66.81931244079296</v>
+        <v>57.67488880978773</v>
       </c>
       <c r="C42" t="n">
-        <v>63.8502041482361</v>
+        <v>63.85020414823613</v>
       </c>
       <c r="D42" t="n">
-        <v>115.3017340719186</v>
+        <v>47.73119435556443</v>
       </c>
       <c r="E42" t="n">
-        <v>48.78678561532129</v>
+        <v>125.5017489626808</v>
       </c>
       <c r="F42" t="n">
         <v>112.9258809006637</v>
@@ -25724,10 +25724,10 @@
         <v>105.2001856704905</v>
       </c>
       <c r="H42" t="n">
-        <v>80.09211274377628</v>
+        <v>80.09211274377631</v>
       </c>
       <c r="I42" t="n">
-        <v>57.2533013586949</v>
+        <v>57.25330135869492</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.01450265992295</v>
+        <v>68.01450265992298</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82487626375818</v>
+        <v>62.82487626375821</v>
       </c>
       <c r="T42" t="n">
         <v>168.0213972021014</v>
       </c>
       <c r="U42" t="n">
-        <v>193.7980505882546</v>
+        <v>193.7980505882547</v>
       </c>
       <c r="V42" t="n">
         <v>200.6572556567051</v>
@@ -25794,19 +25794,19 @@
         <v>116.4721415254922</v>
       </c>
       <c r="E43" t="n">
-        <v>37.57566780648952</v>
+        <v>114.290631153849</v>
       </c>
       <c r="F43" t="n">
         <v>113.2777165302111</v>
       </c>
       <c r="G43" t="n">
-        <v>135.8476478657386</v>
+        <v>106.7967051849518</v>
       </c>
       <c r="H43" t="n">
         <v>130.0838410147194</v>
       </c>
       <c r="I43" t="n">
-        <v>46.59218008717863</v>
+        <v>46.59218008717868</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>145.1500598844493</v>
       </c>
       <c r="S43" t="n">
-        <v>162.8223238634652</v>
+        <v>115.1583031968926</v>
       </c>
       <c r="T43" t="n">
         <v>195.8022579355613</v>
@@ -25876,16 +25876,16 @@
         <v>351.7456287196093</v>
       </c>
       <c r="F44" t="n">
-        <v>303.1367356876649</v>
+        <v>303.136735687665</v>
       </c>
       <c r="G44" t="n">
-        <v>311.5634274610885</v>
+        <v>385.1179961624826</v>
       </c>
       <c r="H44" t="n">
-        <v>235.7354920617206</v>
+        <v>244.5031966509269</v>
       </c>
       <c r="I44" t="n">
-        <v>115.5042841055656</v>
+        <v>106.7365795163594</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>119.6843765884972</v>
       </c>
       <c r="S44" t="n">
-        <v>178.8353282335929</v>
+        <v>105.2807595321988</v>
       </c>
       <c r="T44" t="n">
         <v>192.9111082114789</v>
@@ -25952,19 +25952,19 @@
         <v>117.2603242119863</v>
       </c>
       <c r="E45" t="n">
-        <v>127.4603391027485</v>
+        <v>53.90577040135445</v>
       </c>
       <c r="F45" t="n">
-        <v>114.8844710407314</v>
+        <v>41.32990233933738</v>
       </c>
       <c r="G45" t="n">
         <v>107.1587758105582</v>
       </c>
       <c r="H45" t="n">
-        <v>82.050702883844</v>
+        <v>17.2638387716562</v>
       </c>
       <c r="I45" t="n">
-        <v>59.21189149876261</v>
+        <v>59.21189149876263</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.97309279999067</v>
+        <v>69.9730927999907</v>
       </c>
       <c r="S45" t="n">
         <v>141.4984297511854</v>
       </c>
       <c r="T45" t="n">
-        <v>96.42541864077502</v>
+        <v>169.9799873421692</v>
       </c>
       <c r="U45" t="n">
-        <v>122.2020720269282</v>
+        <v>122.2020720269283</v>
       </c>
       <c r="V45" t="n">
-        <v>129.0612770953787</v>
+        <v>202.6158457967728</v>
       </c>
       <c r="W45" t="n">
         <v>221.5102418082672</v>
@@ -26012,7 +26012,7 @@
         <v>175.588243850825</v>
       </c>
       <c r="Y45" t="n">
-        <v>110.711090312464</v>
+        <v>175.4979544246519</v>
       </c>
     </row>
     <row r="46">
@@ -26025,28 +26025,28 @@
         <v>149.6472388292848</v>
       </c>
       <c r="C46" t="n">
-        <v>63.50751104458128</v>
+        <v>137.0620797459754</v>
       </c>
       <c r="D46" t="n">
         <v>118.4307316655599</v>
       </c>
       <c r="E46" t="n">
-        <v>42.6946525925226</v>
+        <v>116.2492212939167</v>
       </c>
       <c r="F46" t="n">
         <v>115.2363066702788</v>
       </c>
       <c r="G46" t="n">
-        <v>137.8062380058063</v>
+        <v>64.25166930441226</v>
       </c>
       <c r="H46" t="n">
         <v>132.0424311547871</v>
       </c>
       <c r="I46" t="n">
-        <v>125.2657335746058</v>
+        <v>51.71116487321179</v>
       </c>
       <c r="J46" t="n">
-        <v>63.17443876402031</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.97730189904192</v>
+        <v>55.97730189904194</v>
       </c>
       <c r="R46" t="n">
-        <v>82.32178591232915</v>
+        <v>147.108650024517</v>
       </c>
       <c r="S46" t="n">
         <v>193.8318566843198</v>
@@ -26079,7 +26079,7 @@
         <v>197.760848075629</v>
       </c>
       <c r="U46" t="n">
-        <v>182.5797193024443</v>
+        <v>182.5797193024444</v>
       </c>
       <c r="V46" t="n">
         <v>221.9529019711755</v>
@@ -26091,7 +26091,7 @@
         <v>195.5249140363847</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.3999119994423</v>
+        <v>186.7874866512748</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>433435.087762096</v>
+        <v>433435.0877620961</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411679.8279143544</v>
+        <v>411679.8279143543</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331770.9526136581</v>
+        <v>331770.952613658</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.430249112</v>
       </c>
       <c r="C2" t="n">
         <v>798794.4302491125</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="E2" t="n">
         <v>257131.9251353952</v>
       </c>
       <c r="F2" t="n">
-        <v>263538.754231906</v>
+        <v>263538.7542319058</v>
       </c>
       <c r="G2" t="n">
-        <v>510438.8687591222</v>
+        <v>510438.868759122</v>
       </c>
       <c r="H2" t="n">
-        <v>511897.7738016502</v>
+        <v>511897.7738016503</v>
       </c>
       <c r="I2" t="n">
+        <v>545852.1191288868</v>
+      </c>
+      <c r="J2" t="n">
         <v>545852.1191288872</v>
-      </c>
-      <c r="J2" t="n">
-        <v>545852.1191288868</v>
       </c>
       <c r="K2" t="n">
         <v>545852.119128887</v>
@@ -26346,16 +26346,16 @@
         <v>429492.8134028668</v>
       </c>
       <c r="M2" t="n">
-        <v>410782.5101871156</v>
+        <v>410782.5101871155</v>
       </c>
       <c r="N2" t="n">
-        <v>409398.3575285097</v>
+        <v>409398.3575285098</v>
       </c>
       <c r="O2" t="n">
-        <v>329051.6063543195</v>
+        <v>329051.606354319</v>
       </c>
       <c r="P2" t="n">
-        <v>322753.1566769335</v>
+        <v>322753.1566769333</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>20094.44160240801</v>
       </c>
       <c r="F3" t="n">
-        <v>2426.00890868558</v>
+        <v>2426.008908685578</v>
       </c>
       <c r="G3" t="n">
-        <v>95058.88386053446</v>
+        <v>95058.88386053448</v>
       </c>
       <c r="H3" t="n">
-        <v>852.7029190332728</v>
+        <v>852.7029190332788</v>
       </c>
       <c r="I3" t="n">
-        <v>19559.70446364342</v>
+        <v>19559.70446364341</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>1566.87211205417</v>
       </c>
       <c r="L3" t="n">
-        <v>24147.79308212197</v>
+        <v>24147.79308212196</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404042.2432667769</v>
+        <v>404553.4936383134</v>
       </c>
       <c r="C4" t="n">
-        <v>404042.2432667769</v>
+        <v>404553.4936383134</v>
       </c>
       <c r="D4" t="n">
-        <v>404042.2432667769</v>
+        <v>404553.4936383134</v>
       </c>
       <c r="E4" t="n">
-        <v>80525.24396481752</v>
+        <v>81090.59913371151</v>
       </c>
       <c r="F4" t="n">
-        <v>83848.55607839937</v>
+        <v>84417.52644510604</v>
       </c>
       <c r="G4" t="n">
-        <v>212028.3702379956</v>
+        <v>212736.0926729043</v>
       </c>
       <c r="H4" t="n">
-        <v>212450.6473135608</v>
+        <v>213161.999837531</v>
       </c>
       <c r="I4" t="n">
-        <v>222278.6630030985</v>
+        <v>223074.5016957847</v>
       </c>
       <c r="J4" t="n">
-        <v>222278.6630030985</v>
+        <v>223074.5016957847</v>
       </c>
       <c r="K4" t="n">
-        <v>222278.6630030985</v>
+        <v>223074.5016957847</v>
       </c>
       <c r="L4" t="n">
-        <v>154073.1685700446</v>
+        <v>154869.0072627307</v>
       </c>
       <c r="M4" t="n">
-        <v>148657.5096377871</v>
+        <v>149406.7928213336</v>
       </c>
       <c r="N4" t="n">
-        <v>148256.8694865962</v>
+        <v>149002.708582091</v>
       </c>
       <c r="O4" t="n">
-        <v>117702.535498711</v>
+        <v>118309.6568787715</v>
       </c>
       <c r="P4" t="n">
-        <v>114443.3169269382</v>
+        <v>115046.8082179371</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>15549.19916157846</v>
       </c>
       <c r="O5" t="n">
-        <v>7366.527506780949</v>
+        <v>7366.527506780945</v>
       </c>
       <c r="P5" t="n">
-        <v>7009.718797820901</v>
+        <v>7009.718797820896</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361124.5869823353</v>
+        <v>360613.3366107986</v>
       </c>
       <c r="C6" t="n">
-        <v>361124.5869823357</v>
+        <v>360613.3366107992</v>
       </c>
       <c r="D6" t="n">
-        <v>361124.5869823354</v>
+        <v>360613.3366107987</v>
       </c>
       <c r="E6" t="n">
-        <v>153208.0024240934</v>
+        <v>152642.6472551994</v>
       </c>
       <c r="F6" t="n">
-        <v>173612.9890083559</v>
+        <v>173044.018641649</v>
       </c>
       <c r="G6" t="n">
-        <v>185846.7301411642</v>
+        <v>185139.0077062554</v>
       </c>
       <c r="H6" t="n">
-        <v>280897.3870551536</v>
+        <v>280186.0345311835</v>
       </c>
       <c r="I6" t="n">
-        <v>281844.5973711979</v>
+        <v>281048.7586785115</v>
       </c>
       <c r="J6" t="n">
-        <v>293411.7424632052</v>
+        <v>292615.9037705194</v>
       </c>
       <c r="K6" t="n">
-        <v>299837.429722787</v>
+        <v>299041.5910301008</v>
       </c>
       <c r="L6" t="n">
-        <v>233076.0171594096</v>
+        <v>232280.1784667235</v>
       </c>
       <c r="M6" t="n">
-        <v>246393.4950098466</v>
+        <v>245644.2118262999</v>
       </c>
       <c r="N6" t="n">
-        <v>245592.2888803351</v>
+        <v>244846.4497848403</v>
       </c>
       <c r="O6" t="n">
-        <v>203982.5433488275</v>
+        <v>203375.4219687666</v>
       </c>
       <c r="P6" t="n">
-        <v>201300.1209521743</v>
+        <v>200696.6296611753</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="M2" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="N2" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="O2" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="P2" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
     </row>
     <row r="3">
@@ -26801,10 +26801,10 @@
         <v>40.53172782580149</v>
       </c>
       <c r="F4" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="G4" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="H4" t="n">
         <v>167.459720176265</v>
@@ -26828,10 +26828,10 @@
         <v>197.4841008889704</v>
       </c>
       <c r="O4" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="P4" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>1.958590140067713</v>
       </c>
       <c r="L2" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>40.5317278258015</v>
       </c>
       <c r="F4" t="n">
-        <v>2.99846016288717</v>
+        <v>2.998460162887163</v>
       </c>
       <c r="G4" t="n">
         <v>120.7691375416109</v>
       </c>
       <c r="H4" t="n">
-        <v>3.160394645965378</v>
+        <v>3.1603946459654</v>
       </c>
       <c r="I4" t="n">
-        <v>73.55456870139409</v>
+        <v>73.55456870139407</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27269,13 +27269,13 @@
         <v>40.5317278258015</v>
       </c>
       <c r="N4" t="n">
-        <v>2.99846016288717</v>
+        <v>2.998460162887163</v>
       </c>
       <c r="O4" t="n">
         <v>120.7691375416109</v>
       </c>
       <c r="P4" t="n">
-        <v>3.160394645965378</v>
+        <v>3.1603946459654</v>
       </c>
     </row>
   </sheetData>
@@ -28517,7 +28517,7 @@
         <v>11.94928935461252</v>
       </c>
       <c r="M16" t="n">
-        <v>3.946311026848079</v>
+        <v>3.946311026848072</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y32" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="K34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="L34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="M34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="N34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="O34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="P34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="R34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="K37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="L37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="M37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="N37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="O37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="P37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="R37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y39" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="C40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="D40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="E40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="F40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="G40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="H40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="I40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="J40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="K40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="L40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="M40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="N40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="O40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="P40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="R40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="S40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="T40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="U40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="V40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="W40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="X40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.13403070726498</v>
+        <v>42.13403070726496</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="C41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="D41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="E41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="F41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="G41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="H41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="I41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="S41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="T41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="U41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="V41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="W41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="X41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="C42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="D42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="E42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="F42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="G42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="H42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="I42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="S42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="T42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="U42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="V42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="W42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="X42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="Y42" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="C43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="D43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="E43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="F43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="G43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="H43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="I43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="J43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="K43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="L43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="M43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="N43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="O43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="P43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="R43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="S43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="T43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="U43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="V43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="W43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="X43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.14333149272018</v>
+        <v>32.14333149272016</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="C44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="D44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="E44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="F44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="G44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="H44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="I44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="S44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="T44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="U44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="V44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="W44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="X44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="C45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="D45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="E45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="F45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="G45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="H45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="I45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="S45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="T45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="U45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="V45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="W45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="X45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="C46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="D46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="E46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="F46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="G46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="H46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="I46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="J46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="K46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="L46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="M46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="N46" t="n">
-        <v>29.42239632216551</v>
+        <v>29.42239632216545</v>
       </c>
       <c r="O46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="P46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="R46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="S46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="T46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="U46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="V46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="W46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="X46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.18474135265247</v>
+        <v>30.18474135265244</v>
       </c>
     </row>
   </sheetData>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>38.89408225708225</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="L11" t="n">
         <v>40.53172782580149</v>
       </c>
       <c r="M11" t="n">
-        <v>40.53172782580149</v>
+        <v>38.89408225708225</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="L12" t="n">
         <v>38.89408225708225</v>
-      </c>
-      <c r="L12" t="n">
-        <v>40.53172782580149</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="L14" t="n">
-        <v>43.53018798868867</v>
+        <v>41.77139251439821</v>
       </c>
       <c r="M14" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>41.77139251439822</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="O14" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>41.77139251439823</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="L15" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>41.77139251439822</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.53018798868867</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>39.53931461492866</v>
       </c>
       <c r="M16" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="N16" t="n">
-        <v>43.53018798868867</v>
+        <v>43.53018798868866</v>
       </c>
       <c r="O16" t="n">
         <v>36.53441726865219</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="M17" t="n">
-        <v>140.9363762203599</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>6.958999102158082</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>87.56545529338912</v>
+        <v>31.03717090499723</v>
       </c>
       <c r="N18" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="O18" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="P18" t="n">
-        <v>164.2993255302995</v>
+        <v>164.2993255302996</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>167.459720176265</v>
+        <v>86.88570879520708</v>
       </c>
       <c r="M20" t="n">
         <v>167.459720176265</v>
@@ -36135,10 +36135,10 @@
         <v>167.459720176265</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
-        <v>56.63810935002965</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>34.06987283799426</v>
+        <v>167.459720176265</v>
       </c>
       <c r="M21" t="n">
         <v>167.459720176265</v>
       </c>
       <c r="N21" t="n">
-        <v>167.459720176265</v>
+        <v>34.06987283799423</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>19.86453888138213</v>
+        <v>19.86453888138211</v>
       </c>
       <c r="L34" t="n">
-        <v>69.72405596758112</v>
+        <v>69.72405596758111</v>
       </c>
       <c r="M34" t="n">
-        <v>81.71790766910557</v>
+        <v>81.71790766910556</v>
       </c>
       <c r="N34" t="n">
-        <v>86.26620308649358</v>
+        <v>86.26620308649356</v>
       </c>
       <c r="O34" t="n">
-        <v>66.71915862130466</v>
+        <v>66.71915862130464</v>
       </c>
       <c r="P34" t="n">
-        <v>39.41258997215847</v>
+        <v>39.41258997215845</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>47.5415728232144</v>
       </c>
       <c r="M35" t="n">
-        <v>66.12933429460874</v>
+        <v>200.4825610518575</v>
       </c>
       <c r="N35" t="n">
         <v>200.4825610518575</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>19.86453888138213</v>
+        <v>19.86453888138211</v>
       </c>
       <c r="L37" t="n">
-        <v>69.72405596758112</v>
+        <v>69.72405596758111</v>
       </c>
       <c r="M37" t="n">
-        <v>81.71790766910557</v>
+        <v>81.71790766910556</v>
       </c>
       <c r="N37" t="n">
-        <v>86.26620308649358</v>
+        <v>86.26620308649356</v>
       </c>
       <c r="O37" t="n">
-        <v>66.71915862130466</v>
+        <v>66.71915862130464</v>
       </c>
       <c r="P37" t="n">
-        <v>39.41258997215847</v>
+        <v>39.41258997215845</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37554,13 +37554,13 @@
         <v>197.4841008889704</v>
       </c>
       <c r="N38" t="n">
-        <v>57.25510371151845</v>
+        <v>197.4841008889704</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>54.39227676494539</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>75.87688692264076</v>
+      </c>
+      <c r="N39" t="n">
         <v>197.4841008889704</v>
-      </c>
-      <c r="M39" t="n">
-        <v>75.87688692264079</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>197.4841008889704</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>19.86453888138213</v>
+        <v>19.86453888138211</v>
       </c>
       <c r="L40" t="n">
-        <v>69.72405596758112</v>
+        <v>69.72405596758111</v>
       </c>
       <c r="M40" t="n">
-        <v>81.71790766910557</v>
+        <v>81.71790766910556</v>
       </c>
       <c r="N40" t="n">
-        <v>86.26620308649358</v>
+        <v>86.26620308649356</v>
       </c>
       <c r="O40" t="n">
-        <v>66.71915862130466</v>
+        <v>66.71915862130464</v>
       </c>
       <c r="P40" t="n">
-        <v>39.41258997215847</v>
+        <v>39.41258997215845</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="L41" t="n">
-        <v>76.71496334735947</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>73.61536886867827</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="P41" t="n">
-        <v>76.71496334735947</v>
+        <v>73.61536886867822</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="L42" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="M42" t="n">
-        <v>76.71496334735947</v>
+        <v>76.71496334735944</v>
       </c>
       <c r="N42" t="n">
-        <v>3.519855218850711</v>
+        <v>3.519855218850654</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>9.873839666837327</v>
+        <v>9.873839666837306</v>
       </c>
       <c r="L43" t="n">
-        <v>59.73335675303632</v>
+        <v>59.7333567530363</v>
       </c>
       <c r="M43" t="n">
-        <v>71.72720845456077</v>
+        <v>71.72720845456075</v>
       </c>
       <c r="N43" t="n">
-        <v>76.27550387194877</v>
+        <v>76.27550387194876</v>
       </c>
       <c r="O43" t="n">
-        <v>56.72845940675985</v>
+        <v>56.72845940675983</v>
       </c>
       <c r="P43" t="n">
-        <v>29.42189075761367</v>
+        <v>29.42189075761365</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="L44" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="M44" t="n">
-        <v>70.5826669356812</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>70.58266693568115</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.5545687013941</v>
+        <v>70.58266693568117</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4871532858536575</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="P45" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.915249526769614</v>
+        <v>7.915249526769593</v>
       </c>
       <c r="L46" t="n">
-        <v>57.77476661296861</v>
+        <v>57.77476661296858</v>
       </c>
       <c r="M46" t="n">
-        <v>69.76861831449305</v>
+        <v>69.76861831449304</v>
       </c>
       <c r="N46" t="n">
-        <v>73.5545687013941</v>
+        <v>73.55456870139405</v>
       </c>
       <c r="O46" t="n">
-        <v>54.76986926669214</v>
+        <v>54.76986926669212</v>
       </c>
       <c r="P46" t="n">
-        <v>27.46330061754595</v>
+        <v>27.46330061754593</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
